--- a/indextrends/comparison.xlsx
+++ b/indextrends/comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="10" r:id="rId1"/>
@@ -218,7 +218,48 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -494,7 +535,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,6 +651,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:C10">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
